--- a/data/processed/Calidad de racimos vs TEA/__bbdd_revision__SHANUSI.xlsx
+++ b/data/processed/Calidad de racimos vs TEA/__bbdd_revision__SHANUSI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cesar_quezada\ProyectosIA\Proyectos_PALMAS\PROYECTO_01_analitica_descriptiva_TEA\data\processed\Calidad de racimos vs TEA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78080DA3-392C-49B3-92F4-3C4CCA9A2481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38F074B-D26D-4194-8D0E-CBB91CAD304E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -198,9 +198,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="171" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.000000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -299,7 +299,7 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -321,8 +321,8 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -640,10 +640,10 @@
   <dimension ref="A1:AZ151"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AD127" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AB64" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:AZ151"/>
+      <selection pane="bottomRight" activeCell="AV84" sqref="AV84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18957,7 +18957,7 @@
   <dimension ref="A1:Q69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
